--- a/biology/Botanique/Entandrophragma_candollei/Entandrophragma_candollei.xlsx
+++ b/biology/Botanique/Entandrophragma_candollei/Entandrophragma_candollei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Entandrophragma candollei appelé Kosipo, ou encore Boubousson rouge (Côte d'Ivoire) ou Atom Assié (Cameroun), est un arbre de la famille des Meliaceae (famille de l'acajou). 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Kosipos sont de très grands arbres, qui peuvent atteindre de 45 à 60 mètres de hauteur, et leur diamètre mesurer plus de 2 mètres. Leur fûr est cylindrique dès la base et très droit, dépourvu de branche jusqu'à une hauteur d'environ 30 mètres. La couronne est dense, au feuillage sombre. Feuilles alternes, composées de dix à vingt folioles. Le cœur est brun rouge, avec des teintes lie de vin, la couleur de l'aubier est différente, grisâtre ou brun pâle. Longues racines traçantes.
 Le Kosipo pousse en Afrique de l'Ouest et centrale (Cameroun, Congo, Guinée, Angola, Nigeria, Côte d'Ivoire), sur des sols granitiques, humides ou semi humides. On les trouve en général dans des forêts semi décidues (composées en partie d'arbres au feuilles caduques). Ils perdent leurs feuilles durant une courte période en octobre, fleurissent généralement de novembre à décembre. Capsules d'environ 20 cm de long, s'ouvrant du sommet vers la base, les fruits, bruns violacés à brun foncé, arrivent à maturité cinq mois après leur floraison.
@@ -544,11 +558,13 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la phytothérapie en Afrique, son écorce est utilisée en application externe pour ses propriétés calmantes, contre la fièvre et la douleur, et la sève de ses racines contre les morsures ou les piqûres venimeuses.
 			Bois de Entandrophragma candollei
-			Tambour à fente mangbetu (Province orientale du Congo belge[2]).
+			Tambour à fente mangbetu (Province orientale du Congo belge).
 </t>
         </is>
       </c>
